--- a/docs/2.xlsx
+++ b/docs/2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\ivt-19-1-mayak\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F810F8-CCDB-4096-9752-3C3E1A046F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D723F8C-731C-4732-A173-E1049741FB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{BADF047E-1E47-406D-9F10-BF549B6A45D9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{83E1428D-BF06-420D-A900-E72DEDEEC86C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB415B61-8252-4D74-B5B1-2E80BD97DCA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DB997D-4258-4C0F-B3A2-180FA2E376A7}">
   <dimension ref="B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
